--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/commander/high-value/commander-high-value-rare.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/commander/high-value/commander-high-value-rare.xlsx
@@ -26,8 +26,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/1
-Border: black
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -35,33 +34,32 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t>Whenever an opponent casts their first noncreature spell each turn, draw a card unless that player pays {X}, where X is this creature's power.</t>
+          <t xml:space="preserve">Choose one. If you control a commander as you cast this spell, you may choose both instead.
+• Creatures you control gain flying, vigilance, and double strike until end of turn.
+• Creatures you control gain lifelink, indestructible, and protection from each color until end of turn.</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t>➤ 1 white</t>
+          <t xml:space="preserve">➤ 3 generic
+➤ 1 white</t>
         </r>
       </text>
     </comment>
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/1
-Border: black
-Finish: normal
-Keywords:
-➤ Proliferate</t>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
         </r>
       </text>
     </comment>
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">When this creature enters, put a +1/+1 counter on each of any number of target creatures and a charge counter on each of any number of target artifacts.
-{1}, {T}, Sacrifice another artifact: Proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)</t>
+          <t>Destroy all creatures with no counters on them.</t>
         </r>
       </text>
     </comment>
@@ -69,7 +67,7 @@
       <text>
         <r>
           <t xml:space="preserve">➤ 3 generic
-➤ 1 white</t>
+➤ 2 white</t>
         </r>
       </text>
     </comment>
@@ -101,7 +99,8 @@
     <comment ref="D6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
+          <t xml:space="preserve">P/T: 1/1
+Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -109,32 +108,33 @@
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Choose one. If you control a commander as you cast this spell, you may choose both instead.
-• Creatures you control gain flying, vigilance, and double strike until end of turn.
-• Creatures you control gain lifelink, indestructible, and protection from each color until end of turn.</t>
+          <t>Whenever an opponent casts their first noncreature spell each turn, draw a card unless that player pays {X}, where X is this creature's power.</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 3 generic
-➤ 1 white</t>
+          <t>➤ 1 white</t>
         </r>
       </text>
     </comment>
     <comment ref="D7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
+          <t xml:space="preserve">P/T: 1/1
+Border: black
+Finish: normal
+Keywords:
+➤ Proliferate</t>
         </r>
       </text>
     </comment>
     <comment ref="E7" authorId="0">
       <text>
         <r>
-          <t>Destroy all creatures with no counters on them.</t>
+          <t xml:space="preserve">When this creature enters, put a +1/+1 counter on each of any number of target creatures and a charge counter on each of any number of target artifacts.
+{1}, {T}, Sacrifice another artifact: Proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)</t>
         </r>
       </text>
     </comment>
@@ -142,7 +142,7 @@
       <text>
         <r>
           <t xml:space="preserve">➤ 3 generic
-➤ 2 white</t>
+➤ 1 white</t>
         </r>
       </text>
     </comment>
@@ -159,62 +159,12 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 2/2
-Border: black
-Finish: normal
-Keywords:
-➤ Avoidance</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <t>Avoidance — Whenever you cast a noncreature spell, exile up to one target nonland permanent you control, then return that card to the battlefield under its owner's control.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 3 generic
-➤ 1 blue</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">P/T: 1/3
-Game Changer
-Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <t>When this creature enters, look at the top X cards of your library, where X is your devotion to blue. Put up to one of them on top of your library and the rest on the bottom of your library in a random order. If X is greater than or equal to the number of cards in your library, you win the game. (Each {U} in the mana costs of permanents you control counts toward your devotion to blue.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <t>➤ 2 blue</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
           <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">(Gain the next level as a sorcery to add its ability.)
@@ -226,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
@@ -234,7 +184,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">P/T: 2/2
+Border: black
+Finish: normal
+Keywords:
+➤ Avoidance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <t>Avoidance — Whenever you cast a noncreature spell, exile up to one target nonland permanent you control, then return that card to the battlefield under its owner's control.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 3 generic
+➤ 1 blue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Game Changer
@@ -243,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">If you control a commander, you may cast this spell without paying its mana cost.
@@ -251,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 2 generic
@@ -259,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -267,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">If it's not your turn, you may exile a blue card from your hand rather than pay this spell's mana cost.
@@ -275,11 +251,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I6" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
 ➤ 2 blue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">P/T: 1/3
+Game Changer
+Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <t>When this creature enters, look at the top X cards of your library, where X is your devotion to blue. Put up to one of them on top of your library and the rest on the bottom of your library in a random order. If X is greater than or equal to the number of cards in your library, you win the game. (Each {U} in the mana costs of permanents you control counts toward your devotion to blue.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <t>➤ 2 blue</t>
         </r>
       </text>
     </comment>
@@ -349,7 +349,7 @@
     <comment ref="D5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
+          <t xml:space="preserve">Border: borderless
 Finish: normal</t>
         </r>
       </text>
@@ -357,14 +357,15 @@
     <comment ref="E5" authorId="0">
       <text>
         <r>
-          <t>Whenever an opponent loses life, you gain that much life.</t>
+          <t xml:space="preserve">If you control a commander, you may cast this spell without paying its mana cost.
+Exile target creature.</t>
         </r>
       </text>
     </comment>
     <comment ref="I5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 4 generic
+          <t xml:space="preserve">➤ 3 generic
 ➤ 1 black</t>
         </r>
       </text>
@@ -372,7 +373,7 @@
     <comment ref="D6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: borderless
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -380,15 +381,14 @@
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">If you control a commander, you may cast this spell without paying its mana cost.
-Exile target creature.</t>
+          <t>Whenever an opponent loses life, you gain that much life.</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 3 generic
+          <t xml:space="preserve">➤ 4 generic
 ➤ 1 black</t>
         </r>
       </text>
@@ -499,13 +499,39 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">Border: black
+Finish: normal
+Keywords:
+➤ Proliferate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t>Destroy target nonland permanent. Proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 2 generic
+➤ 1 black
+➤ 1 green</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">P/T: 1/2
 Border: borderless
 Finish: normal</t>
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">{T}: Exile target land card from a graveyard. Add one mana of any color.
@@ -514,36 +540,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <t>➤ 1× black or green</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal
-Keywords:
-➤ Proliferate</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <t>Destroy target nonland permanent. Proliferate. (Choose any number of permanents and/or players, then give each another counter of each kind already there.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 2 generic
-➤ 1 black
-➤ 1 green</t>
         </r>
       </text>
     </comment>
@@ -682,11 +682,29 @@
       <text>
         <r>
           <t xml:space="preserve">Border: black
+Finish: normal
+Keywords:
+➤ Channel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">{T}: Add {G}.
+Channel — {1}{G}, Discard this card: Destroy target artifact, enchantment, or nonbasic land an opponent controls. That player may search their library for a land card with a basic land type, put it onto the battlefield, then shuffle. This ability costs {1} less to activate for each legendary creature you control.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">This land enters tapped unless you have two or more opponents.
@@ -694,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -704,27 +722,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">({T}: Add {W}, {B}, or {G}.)
 This land enters tapped.
 Cycling {3} ({3}, Discard this card: Draw a card.)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <t>{T}, Pay 1 life: Add one mana of any color.</t>
         </r>
       </text>
     </comment>
@@ -739,11 +742,26 @@
     <comment ref="E6" authorId="0">
       <text>
         <r>
+          <t>{T}, Pay 1 life: Add one mana of any color.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
           <t>{T}, Pay 1 life, Sacrifice this land: Search your library for a basic land card, put it onto the battlefield, then shuffle.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: borderless
@@ -753,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">({T}: Add {W}, {U}, or {B}.)
@@ -762,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -770,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">This land enters tapped unless you have two or more opponents.
@@ -778,7 +796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0">
+    <comment ref="D10" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -788,7 +806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">({T}: Add {G}, {W}, or {U}.)
@@ -797,7 +815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0">
+    <comment ref="D11" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -807,7 +825,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">({T}: Add {U} or {B}.)
@@ -816,7 +834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
+    <comment ref="D12" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -824,30 +842,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">This land enters tapped unless you have two or more opponents.
-{T}: Add {W} or {B}.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal
-Keywords:
-➤ Cycling</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E12" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">({T}: Add {B}, {G}, or {U}.)
-This land enters tapped.
-Cycling {3} ({3}, Discard this card: Draw a card.)</t>
+          <t xml:space="preserve">(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)
+I — This Saga gains "{T}: Add {C}."
+II — This Saga gains "{2}, {T}: Create a 0/0 colorless Construct artifact creature token with 'This token gets +1/+1 for each artifact you control.'"
+III — Search your library for an artifact card with mana cost {0} or {1}, put it onto the battlefield, then shuffle.</t>
         </r>
       </text>
     </comment>
@@ -855,17 +856,15 @@
       <text>
         <r>
           <t xml:space="preserve">Border: black
-Finish: normal
-Keywords:
-➤ Channel</t>
+Finish: normal</t>
         </r>
       </text>
     </comment>
     <comment ref="E13" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">{T}: Add {G}.
-Channel — {1}{G}, Discard this card: Destroy target artifact, enchantment, or nonbasic land an opponent controls. That player may search their library for a land card with a basic land type, put it onto the battlefield, then shuffle. This ability costs {1} less to activate for each legendary creature you control.</t>
+          <t xml:space="preserve">This land enters tapped unless you have two or more opponents.
+{T}: Add {W} or {B}.</t>
         </r>
       </text>
     </comment>
@@ -888,17 +887,18 @@
       <text>
         <r>
           <t xml:space="preserve">Border: black
-Finish: normal</t>
+Finish: normal
+Keywords:
+➤ Cycling</t>
         </r>
       </text>
     </comment>
     <comment ref="E15" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">(As this Saga enters and after your draw step, add a lore counter. Sacrifice after III.)
-I — This Saga gains "{T}: Add {C}."
-II — This Saga gains "{2}, {T}: Create a 0/0 colorless Construct artifact creature token with 'This token gets +1/+1 for each artifact you control.'"
-III — Search your library for an artifact card with mana cost {0} or {1}, put it onto the battlefield, then shuffle.</t>
+          <t xml:space="preserve">({T}: Add {B}, {G}, or {U}.)
+This land enters tapped.
+Cycling {3} ({3}, Discard this card: Draw a card.)</t>
         </r>
       </text>
     </comment>
@@ -954,61 +954,58 @@
     <t>Scryfall Link</t>
   </si>
   <si>
-    <t>Esper Sentinel</t>
+    <t>Akroma's Will</t>
   </si>
   <si>
     <t>commander</t>
   </si>
   <si>
-    <t>Artifact - Creature</t>
+    <t>Instant</t>
   </si>
   <si>
-    <t>Artifact Creature — Human Soldier</t>
+    <t>m3c</t>
   </si>
   <si>
-    <t>mh2</t>
+    <t>Modern Horizons 3 Commander</t>
   </si>
   <si>
-    <t>Modern Horizons 2</t>
+    <t>165</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>{W}</t>
+    <t>{3}{W}</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>46.86</t>
+    <t>13.20</t>
   </si>
   <si>
-    <t>Open Esper Sentinel</t>
+    <t>Open Akroma's Will</t>
   </si>
   <si>
-    <t>Filigree Vector</t>
+    <t>Damning Verdict</t>
   </si>
   <si>
-    <t>Artifact Creature — Phyrexian Construct</t>
+    <t>Sorcery</t>
   </si>
   <si>
-    <t>moc</t>
+    <t>ncc</t>
   </si>
   <si>
-    <t>March of the Machine Commander</t>
+    <t>New Capenna Commander</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>{3}{W}</t>
+    <t>{3}{W}{W}</t>
   </si>
   <si>
-    <t>14.19</t>
+    <t>12.06</t>
   </si>
   <si>
-    <t>Open Filigree Vector</t>
+    <t>Open Damning Verdict</t>
   </si>
   <si>
     <t>Drannith Magistrate</t>
@@ -1038,100 +1035,52 @@
     <t>Open Drannith Magistrate</t>
   </si>
   <si>
-    <t>Akroma's Will</t>
+    <t>Esper Sentinel</t>
   </si>
   <si>
-    <t>Instant</t>
+    <t>Artifact - Creature</t>
   </si>
   <si>
-    <t>m3c</t>
+    <t>Artifact Creature — Human Soldier</t>
   </si>
   <si>
-    <t>Modern Horizons 3 Commander</t>
+    <t>mh2</t>
   </si>
   <si>
-    <t>165</t>
+    <t>Modern Horizons 2</t>
   </si>
   <si>
-    <t>13.20</t>
+    <t>12</t>
   </si>
   <si>
-    <t>Open Akroma's Will</t>
+    <t>{W}</t>
   </si>
   <si>
-    <t>Damning Verdict</t>
+    <t>46.86</t>
   </si>
   <si>
-    <t>Sorcery</t>
+    <t>Open Esper Sentinel</t>
   </si>
   <si>
-    <t>ncc</t>
+    <t>Filigree Vector</t>
   </si>
   <si>
-    <t>New Capenna Commander</t>
+    <t>Artifact Creature — Phyrexian Construct</t>
   </si>
   <si>
-    <t>{3}{W}{W}</t>
+    <t>moc</t>
   </si>
   <si>
-    <t>12.06</t>
+    <t>March of the Machine Commander</t>
   </si>
   <si>
-    <t>Open Damning Verdict</t>
+    <t>14.19</t>
+  </si>
+  <si>
+    <t>Open Filigree Vector</t>
   </si>
   <si>
     <t>Commander - High Value (Rare) - Blue</t>
-  </si>
-  <si>
-    <t>Displacer Kitten</t>
-  </si>
-  <si>
-    <t>Creature — Cat Beast</t>
-  </si>
-  <si>
-    <t>clb</t>
-  </si>
-  <si>
-    <t>Commander Legends: Battle for Baldur's Gate</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>{3}{U}</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>24.49</t>
-  </si>
-  <si>
-    <t>Open Displacer Kitten</t>
-  </si>
-  <si>
-    <t>Thassa's Oracle</t>
-  </si>
-  <si>
-    <t>Creature — Merfolk Wizard</t>
-  </si>
-  <si>
-    <t>pthb</t>
-  </si>
-  <si>
-    <t>Theros Beyond Death Promos</t>
-  </si>
-  <si>
-    <t>73p</t>
-  </si>
-  <si>
-    <t>{U}{U}</t>
-  </si>
-  <si>
-    <t>21.79</t>
-  </si>
-  <si>
-    <t>Open Thassa's Oracle</t>
   </si>
   <si>
     <t>Artificer Class</t>
@@ -1143,16 +1092,43 @@
     <t>Enchantment — Class</t>
   </si>
   <si>
+    <t>clb</t>
+  </si>
+  <si>
+    <t>Commander Legends: Battle for Baldur's Gate</t>
+  </si>
+  <si>
     <t>663</t>
   </si>
   <si>
     <t>{1}{U}</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
     <t>13.99</t>
   </si>
   <si>
     <t>Open Artificer Class</t>
+  </si>
+  <si>
+    <t>Displacer Kitten</t>
+  </si>
+  <si>
+    <t>Creature — Cat Beast</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>{3}{U}</t>
+  </si>
+  <si>
+    <t>24.49</t>
+  </si>
+  <si>
+    <t>Open Displacer Kitten</t>
   </si>
   <si>
     <t>Fierce Guardianship</t>
@@ -1195,6 +1171,30 @@
   </si>
   <si>
     <t>Open Force of Negation</t>
+  </si>
+  <si>
+    <t>Thassa's Oracle</t>
+  </si>
+  <si>
+    <t>Creature — Merfolk Wizard</t>
+  </si>
+  <si>
+    <t>pthb</t>
+  </si>
+  <si>
+    <t>Theros Beyond Death Promos</t>
+  </si>
+  <si>
+    <t>73p</t>
+  </si>
+  <si>
+    <t>{U}{U}</t>
+  </si>
+  <si>
+    <t>21.79</t>
+  </si>
+  <si>
+    <t>Open Thassa's Oracle</t>
   </si>
   <si>
     <t>Commander - High Value (Rare) - Black</t>
@@ -1254,6 +1254,18 @@
     <t>Open Crypt Ghast</t>
   </si>
   <si>
+    <t>Deadly Rollick</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>26.22</t>
+  </si>
+  <si>
+    <t>Open Deadly Rollick</t>
+  </si>
+  <si>
     <t>Exquisite Blood</t>
   </si>
   <si>
@@ -1273,18 +1285,6 @@
   </si>
   <si>
     <t>Open Exquisite Blood</t>
-  </si>
-  <si>
-    <t>Deadly Rollick</t>
-  </si>
-  <si>
-    <t>695</t>
-  </si>
-  <si>
-    <t>26.22</t>
-  </si>
-  <si>
-    <t>Open Deadly Rollick</t>
   </si>
   <si>
     <t>Commander - High Value (Rare) - Green</t>
@@ -1359,6 +1359,27 @@
     <t>Commander - High Value (Rare) - Multicolor</t>
   </si>
   <si>
+    <t>Atomize</t>
+  </si>
+  <si>
+    <t>pip</t>
+  </si>
+  <si>
+    <t>Fallout</t>
+  </si>
+  <si>
+    <t>{2}{B}{G}</t>
+  </si>
+  <si>
+    <t>B, G</t>
+  </si>
+  <si>
+    <t>13.49</t>
+  </si>
+  <si>
+    <t>Open Atomize</t>
+  </si>
+  <si>
     <t>Deathrite Shaman</t>
   </si>
   <si>
@@ -1377,31 +1398,10 @@
     <t>{B/G}</t>
   </si>
   <si>
-    <t>B, G</t>
-  </si>
-  <si>
     <t>14.99</t>
   </si>
   <si>
     <t>Open Deathrite Shaman</t>
-  </si>
-  <si>
-    <t>Atomize</t>
-  </si>
-  <si>
-    <t>pip</t>
-  </si>
-  <si>
-    <t>Fallout</t>
-  </si>
-  <si>
-    <t>{2}{B}{G}</t>
-  </si>
-  <si>
-    <t>13.49</t>
-  </si>
-  <si>
-    <t>Open Atomize</t>
   </si>
   <si>
     <t>Commander - High Value (Rare) - Artifact (Colorless)</t>
@@ -1480,6 +1480,30 @@
   </si>
   <si>
     <t>Commander - High Value (Rare) - Land</t>
+  </si>
+  <si>
+    <t>Boseiju, Who Endures</t>
+  </si>
+  <si>
+    <t>Land - Legendary</t>
+  </si>
+  <si>
+    <t>Legendary Land</t>
+  </si>
+  <si>
+    <t>neo</t>
+  </si>
+  <si>
+    <t>Kamigawa: Neon Dynasty</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>39.85</t>
+  </si>
+  <si>
+    <t>Open Boseiju, Who Endures</t>
   </si>
   <si>
     <t>Bountiful Promenade</t>
@@ -1641,72 +1665,6 @@
     <t>Open Undercity Sewers</t>
   </si>
   <si>
-    <t>Vault of Champions</t>
-  </si>
-  <si>
-    <t>436</t>
-  </si>
-  <si>
-    <t>B, W</t>
-  </si>
-  <si>
-    <t>Open Vault of Champions</t>
-  </si>
-  <si>
-    <t>Zagoth Triome</t>
-  </si>
-  <si>
-    <t>Land — Swamp Forest Island</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>B, G, U</t>
-  </si>
-  <si>
-    <t>19.32</t>
-  </si>
-  <si>
-    <t>Open Zagoth Triome</t>
-  </si>
-  <si>
-    <t>Boseiju, Who Endures</t>
-  </si>
-  <si>
-    <t>Land - Legendary</t>
-  </si>
-  <si>
-    <t>Legendary Land</t>
-  </si>
-  <si>
-    <t>neo</t>
-  </si>
-  <si>
-    <t>Kamigawa: Neon Dynasty</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>39.85</t>
-  </si>
-  <si>
-    <t>Open Boseiju, Who Endures</t>
-  </si>
-  <si>
-    <t>Yavimaya, Cradle of Growth</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>13.35</t>
-  </si>
-  <si>
-    <t>Open Yavimaya, Cradle of Growth</t>
-  </si>
-  <si>
     <t>Urza's Saga</t>
   </si>
   <si>
@@ -1729,6 +1687,48 @@
   </si>
   <si>
     <t>Open Urza's Saga</t>
+  </si>
+  <si>
+    <t>Vault of Champions</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>B, W</t>
+  </si>
+  <si>
+    <t>Open Vault of Champions</t>
+  </si>
+  <si>
+    <t>Yavimaya, Cradle of Growth</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>13.35</t>
+  </si>
+  <si>
+    <t>Open Yavimaya, Cradle of Growth</t>
+  </si>
+  <si>
+    <t>Zagoth Triome</t>
+  </si>
+  <si>
+    <t>Land — Swamp Forest Island</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>B, G, U</t>
+  </si>
+  <si>
+    <t>19.32</t>
+  </si>
+  <si>
+    <t>Open Zagoth Triome</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1824,34 +1824,6 @@
       <right style="thin">
         <color rgb="FF999999"/>
       </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
       <top style="thin">
         <color rgb="FF8A6BB8"/>
       </top>
@@ -1864,7 +1836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1889,40 +1861,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2354,7 +2308,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>16</v>
@@ -2363,39 +2317,39 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -2404,168 +2358,168 @@
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9">
+        <v>5</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="9">
+      <c r="N4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="11">
         <v>4</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="11">
-        <v>2</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="13">
-        <v>4</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="15">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="15">
-        <v>5</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="15" t="s">
+      <c r="K7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5885,42 +5839,42 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J3" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -5929,168 +5883,168 @@
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9">
+        <v>4</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="9">
+      <c r="N4" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="11">
         <v>2</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="11">
-        <v>2</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="13">
-        <v>3</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="17">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="17">
-        <v>3</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="17" t="s">
+      <c r="K7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9443,134 +9397,134 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>4</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="I5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="N5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="11" t="s">
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="11">
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="13">
         <v>5</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K6" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L6" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="19">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" s="19">
-        <v>4</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="13" t="s">
         <v>125</v>
       </c>
     </row>
@@ -12888,7 +12842,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>128</v>
@@ -12922,90 +12876,90 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>3</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="11">
         <v>2</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="M5" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="17" t="s">
+      <c r="M5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>148</v>
       </c>
     </row>
@@ -16322,80 +16276,80 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="7">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="L3" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J3" s="7">
+      <c r="N3" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="F4" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="19">
+      <c r="G4" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="J4" s="19">
-        <v>4</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="M4" s="19" t="s">
+      <c r="K4" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="13" t="s">
         <v>164</v>
       </c>
     </row>
@@ -19745,90 +19699,90 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="15">
         <v>4</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <v>1</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -23135,46 +23089,46 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="11">
         <v>4</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="11" t="s">
         <v>189</v>
       </c>
     </row>
@@ -26493,16 +26447,16 @@
         <v>192</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>172</v>
@@ -26514,18 +26468,18 @@
         <v>172</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -26534,19 +26488,19 @@
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>172</v>
@@ -26558,18 +26512,18 @@
         <v>172</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -26578,19 +26532,19 @@
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>172</v>
@@ -26602,18 +26556,18 @@
         <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -26622,19 +26576,19 @@
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>172</v>
@@ -26649,15 +26603,15 @@
         <v>172</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -26666,19 +26620,19 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>172</v>
@@ -26690,7 +26644,7 @@
         <v>172</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>221</v>
@@ -26710,19 +26664,19 @@
         <v>16</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>172</v>
@@ -26734,18 +26688,18 @@
         <v>172</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -26754,19 +26708,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>172</v>
@@ -26778,18 +26732,18 @@
         <v>172</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
@@ -26798,16 +26752,16 @@
         <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>240</v>
@@ -26842,19 +26796,19 @@
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>172</v>
@@ -26866,18 +26820,18 @@
         <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
@@ -26886,19 +26840,19 @@
         <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>172</v>
@@ -26910,62 +26864,62 @@
         <v>172</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="A13" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="D13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>261</v>
+      <c r="L13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
@@ -26974,19 +26928,19 @@
         <v>16</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>172</v>
@@ -27001,53 +26955,53 @@
         <v>172</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B15" s="15">
+      <c r="A15" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="11">
         <v>1</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="D15" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="I15" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J15" s="15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="11" t="s">
         <v>273</v>
       </c>
     </row>
